--- a/moduls/old_CKU.xlsx
+++ b/moduls/old_CKU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ ЗПФ\pokom_zpf\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721009DC-FE36-46F2-B0F7-2C034AEF2307}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF37F33-E149-4DB7-84C8-EF9A4039ACA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Колбаса Русская по-стародворски, 0,5 кг.  ПОКОМ</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Хрустящие крылышки. В панировке куриные жареные.ВЕС  ПОКОМ</t>
+  </si>
+  <si>
+    <t>Снеки Чебуманы с говядиной Чебуманы Фикс.вес 0,4 пакет Горячая штучка  Поком</t>
   </si>
 </sst>
 </file>
@@ -405,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,6 +514,11 @@
         <v>18</v>
       </c>
     </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
